--- a/LuaTemplate/Share/trapballs/配置表/color-关卡颜色表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/color-关卡颜色表.xlsx
@@ -41,7 +41,7 @@
           <t xml:space="preserve">
 填写颜色rgb值
 例：
-50,50,50</t>
+[50,50,50]</t>
         </r>
       </text>
     </comment>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>id</t>
   </si>
@@ -107,43 +107,67 @@
     <t>Image_btn_orange</t>
   </si>
   <si>
+    <t>[253,179,92]</t>
+  </si>
+  <si>
     <t>di_green</t>
   </si>
   <si>
     <t>Image_btn_cyan</t>
   </si>
   <si>
+    <t>[165,230,257]</t>
+  </si>
+  <si>
     <t>di_yellow</t>
   </si>
   <si>
     <t>Image_btn_green</t>
   </si>
   <si>
+    <t>[165,255,147]</t>
+  </si>
+  <si>
     <t>di_blue</t>
   </si>
   <si>
     <t>Image_btn_purple</t>
   </si>
   <si>
+    <t>[171,176,253]</t>
+  </si>
+  <si>
     <t>di_red</t>
   </si>
   <si>
     <t>Image_btn_yellow</t>
   </si>
   <si>
+    <t>[254,165,240]</t>
+  </si>
+  <si>
     <t>di_cyan</t>
   </si>
   <si>
+    <t>[255,203,255]</t>
+  </si>
+  <si>
     <t>di_orange</t>
   </si>
   <si>
     <t>Image_btn_red</t>
   </si>
   <si>
+    <t>[253,237,175]</t>
+  </si>
+  <si>
     <t>di_purple</t>
   </si>
   <si>
     <t>Image_btn_blue</t>
+  </si>
+  <si>
+    <t>[250,150,250]</t>
   </si>
 </sst>
 </file>
@@ -151,9 +175,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -165,6 +189,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -180,7 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,9 +235,56 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,10 +295,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,83 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -301,11 +319,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -318,187 +342,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,6 +533,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,39 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -571,17 +577,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +604,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -617,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1138,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1122,7 +1146,7 @@
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1170,8 +1194,11 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
       <c r="E3">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1179,10 +1206,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -1193,10 +1223,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1207,10 +1240,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -1221,10 +1257,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -1235,10 +1274,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -1249,10 +1291,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1263,10 +1308,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
       </c>
       <c r="E10">
         <v>10</v>

--- a/LuaTemplate/Share/trapballs/配置表/color-关卡颜色表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/color-关卡颜色表.xlsx
@@ -116,7 +116,7 @@
     <t>Image_btn_cyan</t>
   </si>
   <si>
-    <t>[165,230,257]</t>
+    <t>[165,230,254]</t>
   </si>
   <si>
     <t>di_yellow</t>
@@ -175,10 +175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -189,90 +189,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -288,8 +205,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,24 +265,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,19 +342,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,7 +432,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,43 +468,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,103 +492,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,36 +533,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,41 +547,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +568,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -641,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/LuaTemplate/Share/trapballs/配置表/color-关卡颜色表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/color-关卡颜色表.xlsx
@@ -116,7 +116,7 @@
     <t>Image_btn_cyan</t>
   </si>
   <si>
-    <t>[165,230,254]</t>
+    <t>[165,230,257]</t>
   </si>
   <si>
     <t>di_yellow</t>
@@ -189,9 +189,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,28 +295,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -235,6 +303,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -242,92 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,31 +342,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,151 +498,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +533,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,42 +569,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -633,6 +613,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -641,145 +641,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/LuaTemplate/Share/trapballs/配置表/color-关卡颜色表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/color-关卡颜色表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="19770" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <t>Image_btn_cyan</t>
   </si>
   <si>
-    <t>[165,230,257]</t>
+    <t>[165,230,254]</t>
   </si>
   <si>
     <t>di_yellow</t>
@@ -176,9 +176,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -189,23 +189,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,68 +213,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,15 +289,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -313,14 +321,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,187 +342,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +533,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,6 +586,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,67 +628,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -839,12 +839,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1129,6 +1124,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1138,7 +1134,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
